--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Nxph3-Nrxn2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Nxph3-Nrxn2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Nxph3</t>
+  </si>
+  <si>
+    <t>Nrxn2</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Nxph3</t>
-  </si>
-  <si>
-    <t>Nrxn2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1425003333333333</v>
+        <v>0.2860933333333334</v>
       </c>
       <c r="H2">
-        <v>0.427501</v>
+        <v>0.85828</v>
       </c>
       <c r="I2">
-        <v>0.2179906358580755</v>
+        <v>0.5596515903460949</v>
       </c>
       <c r="J2">
-        <v>0.2179906358580754</v>
+        <v>0.5596515903460949</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.039512</v>
+        <v>0.007742333333333334</v>
       </c>
       <c r="N2">
-        <v>0.118536</v>
+        <v>0.023227</v>
       </c>
       <c r="O2">
-        <v>0.006183359004302676</v>
+        <v>0.001217676423630818</v>
       </c>
       <c r="P2">
-        <v>0.006183359004302676</v>
+        <v>0.001217676423630818</v>
       </c>
       <c r="Q2">
-        <v>0.005630473170666667</v>
+        <v>0.002215029951111112</v>
       </c>
       <c r="R2">
-        <v>0.05067425853599999</v>
+        <v>0.01993526956</v>
       </c>
       <c r="S2">
-        <v>0.001347914361086697</v>
+        <v>0.0006814745470119324</v>
       </c>
       <c r="T2">
-        <v>0.001347914361086696</v>
+        <v>0.0006814745470119324</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1425003333333333</v>
+        <v>0.2860933333333334</v>
       </c>
       <c r="H3">
-        <v>0.427501</v>
+        <v>0.85828</v>
       </c>
       <c r="I3">
-        <v>0.2179906358580755</v>
+        <v>0.5596515903460949</v>
       </c>
       <c r="J3">
-        <v>0.2179906358580754</v>
+        <v>0.5596515903460949</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>18.117162</v>
       </c>
       <c r="O3">
-        <v>0.9450708374258476</v>
+        <v>0.9497929577862038</v>
       </c>
       <c r="P3">
-        <v>0.9450708374258477</v>
+        <v>0.9497929577862039</v>
       </c>
       <c r="Q3">
-        <v>0.860567208018</v>
+        <v>1.72773308904</v>
       </c>
       <c r="R3">
-        <v>7.745104872162001</v>
+        <v>15.54959780136</v>
       </c>
       <c r="S3">
-        <v>0.2060165927813844</v>
+        <v>0.5315531393245703</v>
       </c>
       <c r="T3">
-        <v>0.2060165927813843</v>
+        <v>0.5315531393245704</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1425003333333333</v>
+        <v>0.2860933333333334</v>
       </c>
       <c r="H4">
-        <v>0.427501</v>
+        <v>0.85828</v>
       </c>
       <c r="I4">
-        <v>0.2179906358580755</v>
+        <v>0.5596515903460949</v>
       </c>
       <c r="J4">
-        <v>0.2179906358580754</v>
+        <v>0.5596515903460949</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3114883333333333</v>
+        <v>0.3114883333333334</v>
       </c>
       <c r="N4">
-        <v>0.934465</v>
+        <v>0.9344650000000001</v>
       </c>
       <c r="O4">
-        <v>0.04874580356984966</v>
+        <v>0.04898936579016542</v>
       </c>
       <c r="P4">
-        <v>0.04874580356984967</v>
+        <v>0.04898936579016543</v>
       </c>
       <c r="Q4">
-        <v>0.04438719132944444</v>
+        <v>0.0891147355777778</v>
       </c>
       <c r="R4">
-        <v>0.399484721965</v>
+        <v>0.8020326202000001</v>
       </c>
       <c r="S4">
-        <v>0.01062612871560437</v>
+        <v>0.02741697647451265</v>
       </c>
       <c r="T4">
-        <v>0.01062612871560437</v>
+        <v>0.02741697647451266</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,13 +705,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -720,16 +720,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2860933333333333</v>
+        <v>0.2251056666666666</v>
       </c>
       <c r="H5">
-        <v>0.8582799999999999</v>
+        <v>0.6753169999999999</v>
       </c>
       <c r="I5">
-        <v>0.4376527843075665</v>
+        <v>0.4403484096539051</v>
       </c>
       <c r="J5">
-        <v>0.4376527843075664</v>
+        <v>0.4403484096539051</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.039512</v>
+        <v>0.007742333333333334</v>
       </c>
       <c r="N5">
-        <v>0.118536</v>
+        <v>0.023227</v>
       </c>
       <c r="O5">
-        <v>0.006183359004302676</v>
+        <v>0.001217676423630818</v>
       </c>
       <c r="P5">
-        <v>0.006183359004302676</v>
+        <v>0.001217676423630818</v>
       </c>
       <c r="Q5">
-        <v>0.01130411978666667</v>
+        <v>0.001742843106555555</v>
       </c>
       <c r="R5">
-        <v>0.10173707808</v>
+        <v>0.015685587959</v>
       </c>
       <c r="S5">
-        <v>0.002706164284606328</v>
+        <v>0.0005362018766188856</v>
       </c>
       <c r="T5">
-        <v>0.002706164284606327</v>
+        <v>0.0005362018766188856</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -782,16 +782,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.2860933333333333</v>
+        <v>0.2251056666666666</v>
       </c>
       <c r="H6">
-        <v>0.8582799999999999</v>
+        <v>0.6753169999999999</v>
       </c>
       <c r="I6">
-        <v>0.4376527843075665</v>
+        <v>0.4403484096539051</v>
       </c>
       <c r="J6">
-        <v>0.4376527843075664</v>
+        <v>0.4403484096539051</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>18.117162</v>
       </c>
       <c r="O6">
-        <v>0.9450708374258476</v>
+        <v>0.9497929577862038</v>
       </c>
       <c r="P6">
-        <v>0.9450708374258477</v>
+        <v>0.9497929577862039</v>
       </c>
       <c r="Q6">
-        <v>1.72773308904</v>
+        <v>1.359425276706</v>
       </c>
       <c r="R6">
-        <v>15.54959780136</v>
+        <v>12.234827490354</v>
       </c>
       <c r="S6">
-        <v>0.4136128833673057</v>
+        <v>0.4182398184616335</v>
       </c>
       <c r="T6">
-        <v>0.4136128833673057</v>
+        <v>0.4182398184616336</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -844,16 +844,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.2860933333333333</v>
+        <v>0.2251056666666666</v>
       </c>
       <c r="H7">
-        <v>0.8582799999999999</v>
+        <v>0.6753169999999999</v>
       </c>
       <c r="I7">
-        <v>0.4376527843075665</v>
+        <v>0.4403484096539051</v>
       </c>
       <c r="J7">
-        <v>0.4376527843075664</v>
+        <v>0.4403484096539051</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3114883333333333</v>
+        <v>0.3114883333333334</v>
       </c>
       <c r="N7">
-        <v>0.934465</v>
+        <v>0.9344650000000001</v>
       </c>
       <c r="O7">
-        <v>0.04874580356984966</v>
+        <v>0.04898936579016542</v>
       </c>
       <c r="P7">
-        <v>0.04874580356984967</v>
+        <v>0.04898936579016543</v>
       </c>
       <c r="Q7">
-        <v>0.08911473557777777</v>
+        <v>0.0701177889338889</v>
       </c>
       <c r="R7">
-        <v>0.8020326201999999</v>
+        <v>0.631060100405</v>
       </c>
       <c r="S7">
-        <v>0.02133373665565442</v>
+        <v>0.02157238931565277</v>
       </c>
       <c r="T7">
-        <v>0.02133373665565442</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.2251056666666667</v>
-      </c>
-      <c r="H8">
-        <v>0.6753170000000001</v>
-      </c>
-      <c r="I8">
-        <v>0.3443565798343581</v>
-      </c>
-      <c r="J8">
-        <v>0.3443565798343581</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.039512</v>
-      </c>
-      <c r="N8">
-        <v>0.118536</v>
-      </c>
-      <c r="O8">
-        <v>0.006183359004302676</v>
-      </c>
-      <c r="P8">
-        <v>0.006183359004302676</v>
-      </c>
-      <c r="Q8">
-        <v>0.008894375101333334</v>
-      </c>
-      <c r="R8">
-        <v>0.080049375912</v>
-      </c>
-      <c r="S8">
-        <v>0.002129280358609651</v>
-      </c>
-      <c r="T8">
-        <v>0.002129280358609651</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.2251056666666667</v>
-      </c>
-      <c r="H9">
-        <v>0.6753170000000001</v>
-      </c>
-      <c r="I9">
-        <v>0.3443565798343581</v>
-      </c>
-      <c r="J9">
-        <v>0.3443565798343581</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>6.039054</v>
-      </c>
-      <c r="N9">
-        <v>18.117162</v>
-      </c>
-      <c r="O9">
-        <v>0.9450708374258476</v>
-      </c>
-      <c r="P9">
-        <v>0.9450708374258477</v>
-      </c>
-      <c r="Q9">
-        <v>1.359425276706</v>
-      </c>
-      <c r="R9">
-        <v>12.234827490354</v>
-      </c>
-      <c r="S9">
-        <v>0.3254413612771576</v>
-      </c>
-      <c r="T9">
-        <v>0.3254413612771576</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.2251056666666667</v>
-      </c>
-      <c r="H10">
-        <v>0.6753170000000001</v>
-      </c>
-      <c r="I10">
-        <v>0.3443565798343581</v>
-      </c>
-      <c r="J10">
-        <v>0.3443565798343581</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.3114883333333333</v>
-      </c>
-      <c r="N10">
-        <v>0.934465</v>
-      </c>
-      <c r="O10">
-        <v>0.04874580356984966</v>
-      </c>
-      <c r="P10">
-        <v>0.04874580356984967</v>
-      </c>
-      <c r="Q10">
-        <v>0.07011778893388888</v>
-      </c>
-      <c r="R10">
-        <v>0.631060100405</v>
-      </c>
-      <c r="S10">
-        <v>0.01678593819859088</v>
-      </c>
-      <c r="T10">
-        <v>0.01678593819859088</v>
+        <v>0.02157238931565277</v>
       </c>
     </row>
   </sheetData>
